--- a/exemplu.xlsx
+++ b/exemplu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calin\Desktop\teme facultate\AN 3\Semestrul 1\RPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pscup\OneDrive\Documents\UiPath\proiect\UiPath_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86D112-6FCA-4E73-8CD6-14796768729A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D401D59-F13C-4B0E-A48F-8D063A49F164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
     <t>Max price</t>
   </si>
   <si>
-    <t xml:space="preserve">iPhone 12 Pro </t>
+    <t>televizor samsung</t>
   </si>
   <si>
-    <t>Samsung Z Fold4</t>
+    <t>masina de spalat</t>
   </si>
 </sst>
 </file>
@@ -370,12 +370,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -391,7 +391,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -399,7 +399,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>7000</v>
+        <v>3500</v>
       </c>
     </row>
   </sheetData>
